--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B1BE2-3646-45F9-AE30-DB0AD370B071}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D132FDB-594F-4F91-9623-00EFC69E79A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="0" windowWidth="11230" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9160" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RR_TracciamentoRequisiti" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="401">
   <si>
     <t>Requisiti funzionali</t>
   </si>
@@ -217,12 +217,6 @@
     <t>RCF031</t>
   </si>
   <si>
-    <t>RCF033</t>
-  </si>
-  <si>
-    <t>RCF034</t>
-  </si>
-  <si>
     <t>RCF036</t>
   </si>
   <si>
@@ -376,12 +370,6 @@
     <t>RCF073</t>
   </si>
   <si>
-    <t>UC7.1.12</t>
-  </si>
-  <si>
-    <t>UC7.1.10</t>
-  </si>
-  <si>
     <t>GDMa=aggiunta auto</t>
   </si>
   <si>
@@ -433,9 +421,6 @@
     <t>GDMm per modificare auto la fa selezionare</t>
   </si>
   <si>
-    <t>UC7.2.1</t>
-  </si>
-  <si>
     <t>GDMm per modificare auto chiede conferma</t>
   </si>
   <si>
@@ -601,12 +586,6 @@
     <t>UC9, Capitolato</t>
   </si>
   <si>
-    <t>Prenotazione viaggio richiede conferma</t>
-  </si>
-  <si>
-    <t>UC9.1, Interno</t>
-  </si>
-  <si>
     <t>Recensione viaggio esiste</t>
   </si>
   <si>
@@ -628,9 +607,6 @@
     <t>UC12,Interno</t>
   </si>
   <si>
-    <t>VDP=Visualizzazione dati personali</t>
-  </si>
-  <si>
     <t>VDM=Visualiz dati macchine</t>
   </si>
   <si>
@@ -643,9 +619,6 @@
     <t>VDI=visualizzazione dati itinerari fatti</t>
   </si>
   <si>
-    <t>VDI esiste</t>
-  </si>
-  <si>
     <t>UC14,Interno</t>
   </si>
   <si>
@@ -655,9 +628,6 @@
     <t xml:space="preserve">       utente</t>
   </si>
   <si>
-    <t>VP esiste</t>
-  </si>
-  <si>
     <t>UC15,Interno</t>
   </si>
   <si>
@@ -682,9 +652,6 @@
     <t>Gestione dati da punti bonus la prima volta che inseriti</t>
   </si>
   <si>
-    <t>Gestione dati opzionali: foto, sesso, età, città</t>
-  </si>
-  <si>
     <t>GDP per modificare pw richiede inserimento della vecchia pw</t>
   </si>
   <si>
@@ -733,36 +700,15 @@
     <t>Chiusura viaggio può essere effetuata almeno dopo 1 minuto dall'inizio del viaggio</t>
   </si>
   <si>
-    <t>RCF0103</t>
-  </si>
-  <si>
     <t>Chiusura del viaggio avviene automaticamente nel caso utente si dimentichi (12h dopo ora prevista)</t>
   </si>
   <si>
-    <t>RCF0104</t>
-  </si>
-  <si>
-    <t>RCF0105</t>
-  </si>
-  <si>
-    <t>RCF0106</t>
-  </si>
-  <si>
-    <t>RCF0107</t>
-  </si>
-  <si>
     <t>RDF015</t>
   </si>
   <si>
     <t>RDF016</t>
   </si>
   <si>
-    <t>RDF029</t>
-  </si>
-  <si>
-    <t>RDF095</t>
-  </si>
-  <si>
     <t>UC2.1,Verbale_2019/03/12</t>
   </si>
   <si>
@@ -796,9 +742,6 @@
     <t>UC2.13, Interno</t>
   </si>
   <si>
-    <t>Capitolato, UCx, Interno (scelte</t>
-  </si>
-  <si>
     <t>particolari pensate da noi per la nostra</t>
   </si>
   <si>
@@ -862,24 +805,12 @@
     <t>RCF101</t>
   </si>
   <si>
-    <t>RCF0108</t>
-  </si>
-  <si>
     <t>Una volta eseguito il logout l'utente è nella schermata principale piatatforma</t>
   </si>
   <si>
-    <t>RDF032</t>
-  </si>
-  <si>
     <t>RCF102</t>
   </si>
   <si>
-    <t>RCF0109</t>
-  </si>
-  <si>
-    <t>RDF035</t>
-  </si>
-  <si>
     <t>GDP=Gestione dati personali obbligatori profilo</t>
   </si>
   <si>
@@ -922,9 +853,6 @@
     <t xml:space="preserve">GDP errore: conferma pw diversa </t>
   </si>
   <si>
-    <t>RDF051</t>
-  </si>
-  <si>
     <t>UC7.1.1,Verbale_2019/03/25</t>
   </si>
   <si>
@@ -949,9 +877,6 @@
     <t>UC7.1.8,Verbale_2019/03/25</t>
   </si>
   <si>
-    <t>UC7.1.9,Verbale_2019/03/25</t>
-  </si>
-  <si>
     <t>UC7.1.11,Verbale_2019/03/25</t>
   </si>
   <si>
@@ -982,9 +907,6 @@
     <t>UC7.2.10, Verbale_2019/03/25</t>
   </si>
   <si>
-    <t>UC7.1.10,Verbale_2019/03/25</t>
-  </si>
-  <si>
     <t>UC7.1.12,Verbale_2019/03/25</t>
   </si>
   <si>
@@ -995,13 +917,319 @@
   </si>
   <si>
     <t>UC10, Verbale_2019/03/12</t>
+  </si>
+  <si>
+    <t>VP permette di vedere dati obbligatori e se esistono opzionali</t>
+  </si>
+  <si>
+    <t>Capitolatoo, UCx, Interno (scelte</t>
+  </si>
+  <si>
+    <t>GDMa per aggiungere calendario disponibilità</t>
+  </si>
+  <si>
+    <t>GDMm per modificare calendario disponibilità</t>
+  </si>
+  <si>
+    <t>GDMa permette ripetizione giorni</t>
+  </si>
+  <si>
+    <t>Prenotazione permette viaggi di più giorni</t>
+  </si>
+  <si>
+    <t>Prenotazione viaggio richiede conferma da parte del proprietario</t>
+  </si>
+  <si>
+    <t>PRENOTAZIONE PER CHI CHIEDE</t>
+  </si>
+  <si>
+    <t>PRENOTAZIONE PER CHI PRESTA</t>
+  </si>
+  <si>
+    <t>pre: avviene prenotazione alla sua macchina</t>
+  </si>
+  <si>
+    <t>Prenotazione avvenuta:notifica</t>
+  </si>
+  <si>
+    <t>Prenotazione permette accettare, rifiutare, contattare utente (mail)</t>
+  </si>
+  <si>
+    <t>Prenotazione da bonus se presto ad una persona senza rank</t>
+  </si>
+  <si>
+    <t>GDMa per aggiungere tariffa oraria</t>
+  </si>
+  <si>
+    <t>GDMm per modificare tariffa oraria</t>
+  </si>
+  <si>
+    <t>Reg all'inizio non assegna medaglie all'utente</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>La prima volta che viene effettuato il login vengono assegnati bonus rank</t>
+  </si>
+  <si>
+    <t>GDMa la prima volta da bonus rank</t>
+  </si>
+  <si>
+    <t>GDMa da bonus se prezzo minore media rank</t>
+  </si>
+  <si>
+    <t>Prenotazione fatta la prim volta da punti bonus rank</t>
+  </si>
+  <si>
+    <t>Prenotazione da bonus ogni tot che presto auto (punti spesa)</t>
+  </si>
+  <si>
+    <t>Prenotazione da bonus su viaggi di lunga tratta (maggiore 100km) (punti spesa)</t>
+  </si>
+  <si>
+    <t>Recensione positiva da parte altro utente da bonus (sia come noleggiatore che come chi prende) bonus rank</t>
+  </si>
+  <si>
+    <t>RCF112</t>
+  </si>
+  <si>
+    <t>Riscuoti buono</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>VP permette di vedere punti rank/livello altro utente</t>
+  </si>
+  <si>
+    <t>Chiusura viaggio permette condivision esperienza facebook</t>
+  </si>
+  <si>
+    <t>Gestione dati opzionali: foto, sesso, età, città, patente, collegamento facebook</t>
+  </si>
+  <si>
+    <t>Collegamento facebook da molti punti bonus rank</t>
+  </si>
+  <si>
+    <t>Classifica se arriva primo da bonus</t>
+  </si>
+  <si>
+    <t>VDP=Visualizzazione dati personali ANAGRAFICI</t>
+  </si>
+  <si>
+    <t>RCF107</t>
+  </si>
+  <si>
+    <t>VSP=Visualizzazione statistiche personali</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>La prima volta che viene effettuato nella giornata routa fortuna che possono dare bonus (rank, spesa)</t>
+  </si>
+  <si>
+    <t>Reg all'inizio assegna 0 punti</t>
+  </si>
+  <si>
+    <t>DA INSERIRE E ASSEGNARE CODICE!!!!!</t>
+  </si>
+  <si>
+    <t>AGGIORNARE: CODICE, TRACCIAMENTO!!!</t>
+  </si>
+  <si>
+    <t>RCF029</t>
+  </si>
+  <si>
+    <t>RCF032</t>
+  </si>
+  <si>
+    <t>RCF035</t>
+  </si>
+  <si>
+    <t>RCF051</t>
+  </si>
+  <si>
+    <t>RCF095</t>
+  </si>
+  <si>
+    <t>RCF103</t>
+  </si>
+  <si>
+    <t>RCF104</t>
+  </si>
+  <si>
+    <t>RCF105</t>
+  </si>
+  <si>
+    <t>RCF106</t>
+  </si>
+  <si>
+    <t>RCF108</t>
+  </si>
+  <si>
+    <t>RCF109</t>
+  </si>
+  <si>
+    <t>RCF114</t>
+  </si>
+  <si>
+    <t>RCF115</t>
+  </si>
+  <si>
+    <t>RCF119</t>
+  </si>
+  <si>
+    <t>RCF120</t>
+  </si>
+  <si>
+    <t>RCF121</t>
+  </si>
+  <si>
+    <t>RCF122</t>
+  </si>
+  <si>
+    <t>RCF123</t>
+  </si>
+  <si>
+    <t>RCF124</t>
+  </si>
+  <si>
+    <t>RCF125</t>
+  </si>
+  <si>
+    <t>RCF126</t>
+  </si>
+  <si>
+    <t>RCF127</t>
+  </si>
+  <si>
+    <t>RCF128</t>
+  </si>
+  <si>
+    <t>RCF129</t>
+  </si>
+  <si>
+    <t>RCF130</t>
+  </si>
+  <si>
+    <t>RCF135</t>
+  </si>
+  <si>
+    <t>RCF136</t>
+  </si>
+  <si>
+    <t>RCF137</t>
+  </si>
+  <si>
+    <t>CASI D'USO DA FARE</t>
+  </si>
+  <si>
+    <t>RCF0134</t>
+  </si>
+  <si>
+    <t>RCF139</t>
+  </si>
+  <si>
+    <t>RCF140</t>
+  </si>
+  <si>
+    <t>Visualizzazione classifica rank: classifica assoluta in base pt rank, base mensile, se arriva primo da bonus</t>
+  </si>
+  <si>
+    <t>Visualizzazione buoni: gia riscossi, da riscotere</t>
+  </si>
+  <si>
+    <t>RDF033</t>
+  </si>
+  <si>
+    <t>RDF034</t>
+  </si>
+  <si>
+    <t>UC 7.1.9</t>
+  </si>
+  <si>
+    <t>UC 7.1.10</t>
+  </si>
+  <si>
+    <t>UC7.1.13,Verbale_2019/03/25</t>
+  </si>
+  <si>
+    <t>UC7.1.14,Verbale_2019/03/25</t>
+  </si>
+  <si>
+    <t>UC 7.2.11</t>
+  </si>
+  <si>
+    <t>UC 7.2.12</t>
+  </si>
+  <si>
+    <t>RDF111</t>
+  </si>
+  <si>
+    <t>RDF110</t>
+  </si>
+  <si>
+    <t>RDF113</t>
+  </si>
+  <si>
+    <t>RDF116</t>
+  </si>
+  <si>
+    <t>RDF117</t>
+  </si>
+  <si>
+    <t>RDF118</t>
+  </si>
+  <si>
+    <t>RCF0133</t>
+  </si>
+  <si>
+    <t>RCF138</t>
+  </si>
+  <si>
+    <t>RCF0132</t>
+  </si>
+  <si>
+    <t>VSP esiste e visualizza: stato avanzamento, statistiche, missioni</t>
+  </si>
+  <si>
+    <t>RCF0131</t>
+  </si>
+  <si>
+    <t>VDI esiste e visualizza partenza arrivo tragitto tempo prezzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VP esiste </t>
+  </si>
+  <si>
+    <t>Capitolato, interni, due verbali</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>UC19.1</t>
+  </si>
+  <si>
+    <t>UC19.2</t>
+  </si>
+  <si>
+    <t>Riscossione buono: deve prima essere selezionato</t>
+  </si>
+  <si>
+    <t>Riscossione richiede conferma operazione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,8 +1252,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1269,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,13 +1303,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1338,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122:H122"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,7 +1608,7 @@
     <col min="3" max="3" width="3.453125" customWidth="1"/>
     <col min="4" max="4" width="2.90625" customWidth="1"/>
     <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="7" max="7" width="63.54296875" customWidth="1"/>
+    <col min="7" max="7" width="41.90625" customWidth="1"/>
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,11 +1616,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1380,13 +1637,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1394,188 +1651,188 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>247</v>
+      <c r="H4" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>248</v>
+      <c r="H5" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>249</v>
+      <c r="H6" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>250</v>
+      <c r="H7" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>251</v>
+      <c r="H8" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>252</v>
+      <c r="H9" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>253</v>
+      <c r="H11" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>83</v>
+      <c r="H12" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>254</v>
+      <c r="H13" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>255</v>
+      <c r="H14" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>256</v>
+      <c r="G15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>257</v>
+      <c r="G16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F18" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1583,13 +1840,13 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1597,1058 +1854,1434 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F36" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F22" s="3" t="s">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G22" s="3" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F24" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F36" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F58" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F63" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>302</v>
+      <c r="G63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>303</v>
-      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F65" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F68" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F69" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F70" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F71" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F72" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G74" s="3" t="s">
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F75" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="H86" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H87" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F76" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="H88" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H89" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="H90" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F78" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="H91" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F92" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H92" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F93" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F79" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="H95" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F81" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="H98" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H99" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F101" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F105" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F106" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F84" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="H106" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F107" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F85" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F86" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F87" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F88" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F89" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F90" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F91" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F92" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F93" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F94" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H107" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F111" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H96" s="3" t="s">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F113" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F114" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F97" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="H114" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F115" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F98" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H115" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F116" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F99" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F100" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F101" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="H116" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F102" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F103" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F104" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F106" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F107" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F108" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F109" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F111" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F112" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F113" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F115" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F116" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F117" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H117" s="3" t="s">
+      <c r="F117" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H118" s="3" t="s">
+      <c r="F118" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>306</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F122" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F123" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F124" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F125" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F128" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F129" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F130" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F132" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F133" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F134" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F135" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F137" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F138" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F139" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F140" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F141" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>332</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>198</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H120" s="3" t="s">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>203</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>206</v>
-      </c>
-      <c r="F124" t="s">
-        <v>280</v>
-      </c>
-      <c r="G124" t="s">
-        <v>207</v>
-      </c>
-      <c r="H124" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>209</v>
-      </c>
-      <c r="F126" t="s">
-        <v>284</v>
-      </c>
-      <c r="G126" t="s">
-        <v>211</v>
-      </c>
-      <c r="H126" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>210</v>
+      <c r="F153" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F156" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F157" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F160" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F162" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D132FDB-594F-4F91-9623-00EFC69E79A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9160" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="RR_TracciamentoRequisiti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1105,9 +1104,6 @@
     <t>RCF126</t>
   </si>
   <si>
-    <t>RCF127</t>
-  </si>
-  <si>
     <t>RCF128</t>
   </si>
   <si>
@@ -1223,12 +1219,15 @@
   </si>
   <si>
     <t>Riscossione richiede conferma operazione</t>
+  </si>
+  <si>
+    <t>RDF127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1307,14 +1306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1594,35 +1593,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="F109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="7" max="7" width="41.90625" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="s">
         <v>228</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>245</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>246</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>256</v>
       </c>
@@ -1900,8 +1899,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>338</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1914,8 +1913,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>339</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1928,9 +1927,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>368</v>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -1942,7 +1941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1953,12 +1952,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="2" t="s">
         <v>340</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" s="2" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35" s="2" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36" s="2" t="s">
         <v>341</v>
       </c>
@@ -2035,9 +2034,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>317</v>
@@ -2046,9 +2045,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F38" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>336</v>
@@ -2057,7 +2056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40" s="2" t="s">
         <v>342</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F43" s="2" t="s">
         <v>66</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F44" s="2" t="s">
         <v>67</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45" s="2" t="s">
         <v>68</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F46" s="2" t="s">
         <v>69</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2134,10 +2133,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>263</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" s="2" t="s">
         <v>72</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F51" s="2" t="s">
         <v>73</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" s="2" t="s">
         <v>74</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F53" s="2" t="s">
         <v>75</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" s="2" t="s">
         <v>76</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F55" s="2" t="s">
         <v>86</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="2" t="s">
         <v>87</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="2" t="s">
         <v>88</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="2" t="s">
         <v>343</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="2" t="s">
         <v>94</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" s="2" t="s">
         <v>95</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" s="2" t="s">
         <v>96</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" s="2" t="s">
         <v>97</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" s="2" t="s">
         <v>98</v>
       </c>
@@ -2305,17 +2304,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F69" s="2" t="s">
         <v>101</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F70" s="2" t="s">
         <v>102</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F71" s="2" t="s">
         <v>103</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F72" s="2" t="s">
         <v>104</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F73" s="2" t="s">
         <v>105</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F75" s="2" t="s">
         <v>107</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F76" s="2" t="s">
         <v>108</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F77" s="2" t="s">
         <v>109</v>
       </c>
@@ -2442,10 +2441,10 @@
         <v>301</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F78" s="2" t="s">
         <v>110</v>
       </c>
@@ -2453,10 +2452,10 @@
         <v>312</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F79" s="2" t="s">
         <v>111</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" s="2" t="s">
         <v>112</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="2" t="s">
         <v>113</v>
       </c>
@@ -2486,10 +2485,10 @@
         <v>128</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="2" t="s">
         <v>114</v>
       </c>
@@ -2497,10 +2496,10 @@
         <v>129</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="2" t="s">
         <v>115</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="2" t="s">
         <v>147</v>
       </c>
@@ -2519,10 +2518,10 @@
         <v>132</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="2" t="s">
         <v>148</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="2" t="s">
         <v>149</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="2" t="s">
         <v>150</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="2" t="s">
         <v>151</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="2" t="s">
         <v>152</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="2" t="s">
         <v>153</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="2" t="s">
         <v>154</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92" s="2" t="s">
         <v>155</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93" s="2" t="s">
         <v>156</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94" s="2" t="s">
         <v>157</v>
       </c>
@@ -2629,10 +2628,10 @@
         <v>302</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95" s="2" t="s">
         <v>158</v>
       </c>
@@ -2640,10 +2639,10 @@
         <v>313</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96" s="2" t="s">
         <v>159</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="2" t="s">
         <v>160</v>
       </c>
@@ -2662,10 +2661,10 @@
         <v>145</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="2" t="s">
         <v>161</v>
       </c>
@@ -2673,10 +2672,10 @@
         <v>143</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="2" t="s">
         <v>162</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100" s="2" t="s">
         <v>163</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="2" t="s">
         <v>164</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="2" t="s">
         <v>165</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="2" t="s">
         <v>166</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="2" t="s">
         <v>167</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="2" t="s">
         <v>344</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="2" t="s">
         <v>168</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107" s="2" t="s">
         <v>169</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="2" t="s">
         <v>170</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110" s="2" t="s">
         <v>171</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="2" t="s">
         <v>259</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="2" t="s">
         <v>260</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F113" s="2" t="s">
         <v>262</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F114" s="2" t="s">
         <v>345</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F115" s="2" t="s">
         <v>346</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F116" s="2" t="s">
         <v>347</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F117" s="2" t="s">
         <v>348</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F118" s="2" t="s">
         <v>333</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>306</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F121" s="2" t="s">
         <v>350</v>
       </c>
@@ -2910,9 +2909,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F122" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>221</v>
@@ -2921,9 +2920,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F123" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>222</v>
@@ -2932,7 +2931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F124" s="2" t="s">
         <v>324</v>
       </c>
@@ -2943,9 +2942,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F125" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>304</v>
@@ -2954,8 +2953,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>307</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -2968,8 +2967,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>308</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -2982,9 +2981,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F128" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>311</v>
@@ -2993,9 +2992,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F129" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>321</v>
@@ -3004,9 +3003,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F130" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>322</v>
@@ -3015,7 +3014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F132" s="2" t="s">
         <v>353</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F133" s="2" t="s">
         <v>354</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F134" s="2" t="s">
         <v>355</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F135" s="2" t="s">
         <v>356</v>
       </c>
@@ -3059,8 +3058,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F137" s="2" t="s">
         <v>357</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F138" s="2" t="s">
         <v>358</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F139" s="2" t="s">
         <v>359</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F140" s="2" t="s">
         <v>360</v>
       </c>
@@ -3104,9 +3103,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F141" s="2" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>328</v>
@@ -3115,13 +3114,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>332</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>193</v>
@@ -3130,27 +3129,27 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>334</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H146" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H146" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>195</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>196</v>
@@ -3159,40 +3158,40 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>198</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>200</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>201</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>299</v>
@@ -3201,9 +3200,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F154" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>327</v>
@@ -3212,20 +3211,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F156" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F157" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>331</v>
@@ -3234,26 +3233,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F160" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-    </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F162" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>325</v>
@@ -3262,26 +3261,26 @@
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F163" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F164" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F164" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D132FDB-594F-4F91-9623-00EFC69E79A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDFCB5-9DE9-44AA-AB01-5DA05E2AFE83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9160" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>RCF040</t>
   </si>
   <si>
-    <t>RCF041</t>
-  </si>
-  <si>
     <t>RCF042</t>
   </si>
   <si>
@@ -526,15 +523,6 @@
     <t>RCF094</t>
   </si>
   <si>
-    <t>RCF096</t>
-  </si>
-  <si>
-    <t>RCF097</t>
-  </si>
-  <si>
-    <t>RCF098</t>
-  </si>
-  <si>
     <t>RCF099</t>
   </si>
   <si>
@@ -1021,9 +1009,6 @@
     <t>VDP=Visualizzazione dati personali ANAGRAFICI</t>
   </si>
   <si>
-    <t>RCF107</t>
-  </si>
-  <si>
     <t>VSP=Visualizzazione statistiche personali</t>
   </si>
   <si>
@@ -1087,27 +1072,12 @@
     <t>RCF120</t>
   </si>
   <si>
-    <t>RCF121</t>
-  </si>
-  <si>
-    <t>RCF122</t>
-  </si>
-  <si>
     <t>RCF123</t>
   </si>
   <si>
     <t>RCF124</t>
   </si>
   <si>
-    <t>RCF125</t>
-  </si>
-  <si>
-    <t>RCF126</t>
-  </si>
-  <si>
-    <t>RCF127</t>
-  </si>
-  <si>
     <t>RCF128</t>
   </si>
   <si>
@@ -1120,9 +1090,6 @@
     <t>RCF135</t>
   </si>
   <si>
-    <t>RCF136</t>
-  </si>
-  <si>
     <t>RCF137</t>
   </si>
   <si>
@@ -1223,6 +1190,39 @@
   </si>
   <si>
     <t>Riscossione richiede conferma operazione</t>
+  </si>
+  <si>
+    <t>RDF127</t>
+  </si>
+  <si>
+    <t>RDF126</t>
+  </si>
+  <si>
+    <t>RDF125</t>
+  </si>
+  <si>
+    <t>RDF041</t>
+  </si>
+  <si>
+    <t>RDF096</t>
+  </si>
+  <si>
+    <t>RDF097</t>
+  </si>
+  <si>
+    <t>ROF098</t>
+  </si>
+  <si>
+    <t>RDF107</t>
+  </si>
+  <si>
+    <t>RDF122</t>
+  </si>
+  <si>
+    <t>RDF121</t>
+  </si>
+  <si>
+    <t>RDF136</t>
   </si>
 </sst>
 </file>
@@ -1303,18 +1303,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1597,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="F145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,11 +1615,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1658,12 +1657,12 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -1672,12 +1671,12 @@
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1686,12 +1685,12 @@
         <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -1700,12 +1699,12 @@
         <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
@@ -1714,12 +1713,12 @@
         <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -1728,7 +1727,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1736,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>47</v>
@@ -1750,7 +1749,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1761,7 +1760,7 @@
         <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1772,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1783,7 +1782,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1791,10 +1790,10 @@
         <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1805,10 +1804,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1816,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>44</v>
@@ -1827,10 +1826,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F18" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
@@ -1858,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>44</v>
@@ -1866,10 +1865,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F21" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>44</v>
@@ -1877,10 +1876,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F22" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>44</v>
@@ -1888,74 +1887,74 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>368</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>395</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1993,7 +1992,7 @@
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F33" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -2010,7 +2009,7 @@
         <v>55</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.35">
@@ -2026,32 +2025,32 @@
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F36" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F37" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="6:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F38" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>44</v>
@@ -2059,7 +2058,7 @@
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F40" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>57</v>
@@ -2073,7 +2072,7 @@
         <v>65</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>44</v>
@@ -2095,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>44</v>
@@ -2106,7 +2105,7 @@
         <v>68</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>44</v>
@@ -2117,7 +2116,7 @@
         <v>69</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>44</v>
@@ -2125,10 +2124,10 @@
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F47" s="2" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>44</v>
@@ -2139,79 +2138,79 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>48</v>
@@ -2219,546 +2218,536 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F56" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F57" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F58" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F63" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F79" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F80" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F84" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F85" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F86" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F88" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F89" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F90" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F91" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F92" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F93" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F94" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F95" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F96" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F97" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F98" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F99" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F100" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F101" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F102" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F103" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F104" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F105" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F106" s="2" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>44</v>
@@ -2766,10 +2755,10 @@
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F107" s="2" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>44</v>
@@ -2777,10 +2766,10 @@
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F108" s="2" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>44</v>
@@ -2788,87 +2777,87 @@
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F110" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F111" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F112" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F113" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F114" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F115" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F116" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F117" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>44</v>
@@ -2876,10 +2865,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F118" s="2" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>44</v>
@@ -2887,24 +2876,24 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F121" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>44</v>
@@ -2912,10 +2901,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F122" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>44</v>
@@ -2923,93 +2912,93 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F123" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F124" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F125" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>304</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+      <c r="F127" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F128" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F128" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="H128" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F129" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F130" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>44</v>
@@ -3017,21 +3006,21 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F132" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F133" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>44</v>
@@ -3039,10 +3028,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F134" s="2" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>44</v>
@@ -3050,44 +3039,43 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F135" s="2" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F137" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F138" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F139" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>44</v>
@@ -3095,107 +3083,105 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F140" s="2" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F141" s="2" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>334</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>329</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>315</v>
+        <v>380</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>44</v>
@@ -3203,10 +3189,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F154" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>44</v>
@@ -3214,21 +3200,21 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F156" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F157" s="2" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>44</v>
@@ -3236,52 +3222,46 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F160" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-    </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F162" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F163" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F164" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="H164" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDFCB5-9DE9-44AA-AB01-5DA05E2AFE83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881BA91-B421-4BFD-97AB-F6608D33EB7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9160" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="402">
   <si>
     <t>Requisiti funzionali</t>
   </si>
@@ -1223,6 +1223,9 @@
   </si>
   <si>
     <t>RDF136</t>
+  </si>
+  <si>
+    <t>Uc 9.2Interno</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
+    <sheetView tabSelected="1" topLeftCell="F117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2896,7 +2899,7 @@
         <v>301</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>44</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">

--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881BA91-B421-4BFD-97AB-F6608D33EB7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110E127-B70C-4FD3-A354-FABA6B0E6077}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9160" windowHeight="11810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RR_TracciamentoRequisiti" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="405">
   <si>
     <t>Requisiti funzionali</t>
   </si>
@@ -1226,6 +1226,15 @@
   </si>
   <si>
     <t>Uc 9.2Interno</t>
+  </si>
+  <si>
+    <t>Sezione esplora esiste</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>RDF141</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3267,6 +3276,17 @@
         <v>387</v>
       </c>
     </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F166" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>

--- a/Tracciamento_requisiti.xlsx
+++ b/Tracciamento_requisiti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110E127-B70C-4FD3-A354-FABA6B0E6077}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F55158-ACF8-4239-8A9C-B9343D39C8DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="406">
   <si>
     <t>Requisiti funzionali</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t>RDF141</t>
+  </si>
+  <si>
+    <t>Uc21</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2065,7 +2068,7 @@
         <v>331</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.35">
